--- a/data/trans_orig/IP07A21_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A21_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D5BE2CD-D329-4F1C-BB50-DEC90FBD1524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C2C613-310A-47BC-9CE9-96F6477F259E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C6EC2FB2-C74F-437F-B11F-8D86454DBF97}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C78767A0-54A1-4BBF-946D-2053C7200170}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,177 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
     <t>3,99%</t>
   </si>
   <si>
@@ -116,33 +266,6 @@
     <t>5,31%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
     <t>25,04%</t>
   </si>
   <si>
@@ -170,21 +293,6 @@
     <t>32,11%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
     <t>70,47%</t>
   </si>
   <si>
@@ -212,112 +320,52 @@
     <t>71,15%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -344,33 +392,6 @@
     <t>4,62%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
     <t>24,57%</t>
   </si>
   <si>
@@ -396,27 +417,6 @@
   </si>
   <si>
     <t>30,81%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
   </si>
   <si>
     <t>70,87%</t>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33484CBD-4F87-498F-B684-2CC23206BAF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B33CF0-C7FB-4DCF-840E-338D15F40366}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1225,10 +1225,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>13957</v>
+        <v>888</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1240,34 +1240,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>8184</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>888</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>27</v>
-      </c>
-      <c r="N10" s="7">
-        <v>22140</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1276,49 +1276,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>849</v>
+        <v>1890</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1890</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5690</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6539</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1327,49 +1327,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>87638</v>
+        <v>539</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H12" s="7">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>92960</v>
+        <v>692</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>180598</v>
+        <v>1231</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,49 +1378,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>902</v>
+        <v>14949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>818</v>
+        <v>14725</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>1720</v>
+        <v>29674</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,49 +1429,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>286</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>246609</v>
+        <v>49330</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="7">
+        <v>63</v>
+      </c>
+      <c r="I14" s="7">
+        <v>47037</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="7">
+        <v>122</v>
+      </c>
+      <c r="N14" s="7">
+        <v>96367</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="H14" s="7">
-        <v>253</v>
-      </c>
-      <c r="I14" s="7">
-        <v>191165</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="7">
-        <v>539</v>
-      </c>
-      <c r="N14" s="7">
-        <v>437776</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,54 +1480,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>349955</v>
+        <v>67597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>298817</v>
+        <v>62453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
-        <v>802</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>648773</v>
+        <v>130050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1536,46 +1536,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>539</v>
+        <v>902</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>692</v>
+        <v>818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>1231</v>
+        <v>1720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,49 +1584,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1890</v>
+        <v>849</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="7">
+        <v>8</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5690</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="7">
+        <v>9</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6539</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1890</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,49 +1635,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>14949</v>
+        <v>13957</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="7">
+        <v>11</v>
+      </c>
+      <c r="I18" s="7">
+        <v>8184</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>27</v>
+      </c>
+      <c r="N18" s="7">
+        <v>22140</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="7">
-        <v>18</v>
-      </c>
-      <c r="I18" s="7">
-        <v>14725</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="7">
-        <v>35</v>
-      </c>
-      <c r="N18" s="7">
-        <v>29674</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,46 +1686,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="D19" s="7">
-        <v>888</v>
+        <v>87638</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="7">
+        <v>121</v>
+      </c>
+      <c r="I19" s="7">
+        <v>92960</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>225</v>
+      </c>
+      <c r="N19" s="7">
+        <v>180598</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>888</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>84</v>
@@ -1737,10 +1737,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>59</v>
+        <v>286</v>
       </c>
       <c r="D20" s="7">
-        <v>49330</v>
+        <v>246609</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>85</v>
@@ -1752,10 +1752,10 @@
         <v>87</v>
       </c>
       <c r="H20" s="7">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="I20" s="7">
-        <v>47037</v>
+        <v>191165</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>88</v>
@@ -1767,10 +1767,10 @@
         <v>90</v>
       </c>
       <c r="M20" s="7">
-        <v>122</v>
+        <v>539</v>
       </c>
       <c r="N20" s="7">
-        <v>96367</v>
+        <v>437776</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>91</v>
@@ -1788,49 +1788,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="D21" s="7">
-        <v>67597</v>
+        <v>349955</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="I21" s="7">
-        <v>62453</v>
+        <v>298817</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>802</v>
       </c>
       <c r="N21" s="7">
-        <v>130050</v>
+        <v>648773</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,49 +1841,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>14496</v>
+        <v>1790</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>95</v>
       </c>
       <c r="H22" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>8875</v>
+        <v>818</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>96</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2608</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M22" s="7">
-        <v>29</v>
-      </c>
-      <c r="N22" s="7">
-        <v>23371</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,13 +1898,13 @@
         <v>2739</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -1913,13 +1913,13 @@
         <v>5690</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -1928,13 +1928,13 @@
         <v>8429</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,49 +1943,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>102588</v>
+        <v>14496</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7">
+        <v>8875</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="7">
-        <v>139</v>
-      </c>
-      <c r="I24" s="7">
-        <v>107684</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>29</v>
+      </c>
+      <c r="N24" s="7">
+        <v>23371</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M24" s="7">
-        <v>260</v>
-      </c>
-      <c r="N24" s="7">
-        <v>210272</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,40 +1994,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D25" s="7">
-        <v>1790</v>
+        <v>102588</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>139</v>
+      </c>
+      <c r="I25" s="7">
+        <v>107684</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>818</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>123</v>
       </c>
       <c r="M25" s="7">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="N25" s="7">
-        <v>2608</v>
+        <v>210272</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>124</v>
@@ -2102,13 +2102,13 @@
         <v>417552</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>476</v>
@@ -2117,13 +2117,13 @@
         <v>361271</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>964</v>
@@ -2132,13 +2132,13 @@
         <v>778823</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A21_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A21_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C2C613-310A-47BC-9CE9-96F6477F259E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB59500-419A-4B6A-B4E8-5E039CF1A227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C78767A0-54A1-4BBF-946D-2053C7200170}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{677EED7E-6535-4EAE-8E12-D99748F868D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
   <si>
     <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -65,385 +65,397 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,63%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,36%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -454,7 +466,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -550,39 +562,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -634,7 +646,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -745,13 +757,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -760,6 +765,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -824,19 +836,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B33CF0-C7FB-4DCF-840E-338D15F40366}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38631EE-7334-4080-B09B-694F68E145D3}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1225,49 +1257,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1276,49 +1302,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1327,49 +1347,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,49 +1392,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
-      </c>
-      <c r="D13" s="7">
-        <v>14949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14725</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
-      </c>
-      <c r="N13" s="7">
-        <v>29674</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1429,49 +1437,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>59</v>
-      </c>
-      <c r="D14" s="7">
-        <v>49330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>63</v>
-      </c>
-      <c r="I14" s="7">
-        <v>47037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>122</v>
-      </c>
-      <c r="N14" s="7">
-        <v>96367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1480,102 +1482,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>67597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>62453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>130050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D16" s="7">
-        <v>902</v>
+        <v>114715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7">
-        <v>818</v>
+        <v>92193</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="N16" s="7">
-        <v>1720</v>
+        <v>206907</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,49 +1580,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>849</v>
+        <v>39802</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="I17" s="7">
-        <v>5690</v>
+        <v>36360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="N17" s="7">
-        <v>6539</v>
+        <v>76162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,49 +1631,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>13957</v>
+        <v>5442</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>8184</v>
+        <v>1905</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N18" s="7">
-        <v>22140</v>
+        <v>7348</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,49 +1682,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>87638</v>
+        <v>1890</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>92960</v>
+        <v>2530</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>180598</v>
+        <v>4420</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,49 +1733,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>286</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>246609</v>
+        <v>1790</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>191165</v>
+        <v>818</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>437776</v>
+        <v>2608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,102 +1784,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>408</v>
+        <v>195</v>
       </c>
       <c r="D21" s="7">
-        <v>349955</v>
+        <v>163639</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>394</v>
+        <v>177</v>
       </c>
       <c r="I21" s="7">
-        <v>298817</v>
+        <v>133806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>802</v>
+        <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>648773</v>
+        <v>297444</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="D22" s="7">
-        <v>1790</v>
+        <v>181226</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="I22" s="7">
-        <v>818</v>
+        <v>146010</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>407</v>
       </c>
       <c r="N22" s="7">
-        <v>2608</v>
+        <v>327235</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,49 +1888,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D23" s="7">
-        <v>2739</v>
+        <v>62786</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="I23" s="7">
-        <v>5690</v>
+        <v>71325</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="N23" s="7">
-        <v>8429</v>
+        <v>134110</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,49 +1939,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>14496</v>
+        <v>9054</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>8875</v>
+        <v>6970</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>23371</v>
+        <v>16024</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,49 +1990,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>102588</v>
+        <v>849</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>107684</v>
+        <v>3160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>210272</v>
+        <v>4009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,49 +2041,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>295940</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>238203</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>534142</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,55 +2092,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>293</v>
+      </c>
+      <c r="D27" s="7">
+        <v>253914</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>299</v>
+      </c>
+      <c r="I27" s="7">
+        <v>227465</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>592</v>
+      </c>
+      <c r="N27" s="7">
+        <v>481378</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>345</v>
+      </c>
+      <c r="D28" s="7">
+        <v>295940</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="7">
+        <v>316</v>
+      </c>
+      <c r="I28" s="7">
+        <v>238203</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" s="7">
+        <v>661</v>
+      </c>
+      <c r="N28" s="7">
+        <v>534142</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>121</v>
+      </c>
+      <c r="D29" s="7">
+        <v>102588</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="7">
+        <v>139</v>
+      </c>
+      <c r="I29" s="7">
+        <v>107684</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="7">
+        <v>260</v>
+      </c>
+      <c r="N29" s="7">
+        <v>210272</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7">
+        <v>14496</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="7">
+        <v>12</v>
+      </c>
+      <c r="I30" s="7">
+        <v>8875</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="7">
+        <v>29</v>
+      </c>
+      <c r="N30" s="7">
+        <v>23371</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2739</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5690</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8429</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1790</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>818</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2608</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>488</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>417552</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>476</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>361271</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>964</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>778823</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A21_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A21_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB59500-419A-4B6A-B4E8-5E039CF1A227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33961B8A-56AD-4027-9DED-854D5BF041BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{677EED7E-6535-4EAE-8E12-D99748F868D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBEA461F-386F-450F-8CDD-5FD6209BBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -95,25 +95,25 @@
     <t>70,1%</t>
   </si>
   <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>68,9%</t>
   </si>
   <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>64,44%</t>
+    <t>64,4%</t>
   </si>
   <si>
     <t>74,04%</t>
@@ -122,37 +122,37 @@
     <t>24,32%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>27,17%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
   </si>
   <si>
     <t>25,61%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>1,42%</t>
@@ -161,16 +161,16 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>4,1%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -179,241 +179,238 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>4,05%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,59%</t>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>4,31%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -422,37 +419,40 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>1,84%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,96%</t>
+    <t>0,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38631EE-7334-4080-B09B-694F68E145D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC4F9C1-0996-4C6C-A91C-C84E26106E12}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2017,7 +2017,7 @@
         <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2026,13 +2026,13 @@
         <v>4009</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,10 +2050,10 @@
         <v>46</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>46</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2151,13 @@
         <v>295940</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H28" s="7">
         <v>316</v>
@@ -2166,13 +2166,13 @@
         <v>238203</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M28" s="7">
         <v>661</v>
@@ -2181,13 +2181,13 @@
         <v>534142</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,13 +2202,13 @@
         <v>102588</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H29" s="7">
         <v>139</v>
@@ -2217,13 +2217,13 @@
         <v>107684</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M29" s="7">
         <v>260</v>
@@ -2232,13 +2232,13 @@
         <v>210272</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,7 +2253,7 @@
         <v>14496</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>118</v>
@@ -2271,10 +2271,10 @@
         <v>120</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -2283,13 +2283,13 @@
         <v>23371</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2304,13 @@
         <v>2739</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -2319,10 +2319,10 @@
         <v>5690</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>130</v>
@@ -2337,10 +2337,10 @@
         <v>131</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2355,13 @@
         <v>1790</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>

--- a/data/trans_orig/IP07A21_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A21_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33961B8A-56AD-4027-9DED-854D5BF041BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{920DBCBC-52EB-4678-B22A-AED807901D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBEA461F-386F-450F-8CDD-5FD6209BBCDD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6F1E2273-7268-4EA7-A74A-C440B83EE5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
-  <si>
-    <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="148">
+  <si>
+    <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 50,31%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,22 +68,22 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>Siempre</t>
+    <t>Muchísimo</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Nunca</t>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>Nada</t>
   </si>
   <si>
     <t>3-7</t>
@@ -92,367 +92,391 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -867,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC4F9C1-0996-4C6C-A91C-C84E26106E12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23751BB-4A82-48E3-90DC-D128229463B3}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1529,10 +1553,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="D16" s="7">
-        <v>114715</v>
+        <v>76514</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1544,10 +1568,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I16" s="7">
-        <v>92193</v>
+        <v>113959</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1559,10 +1583,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="N16" s="7">
-        <v>206907</v>
+        <v>190473</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1580,10 +1604,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D17" s="7">
-        <v>39802</v>
+        <v>47418</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -1595,10 +1619,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="7">
-        <v>36360</v>
+        <v>42273</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -1610,10 +1634,10 @@
         <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="N17" s="7">
-        <v>76162</v>
+        <v>89691</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>33</v>
@@ -1631,10 +1655,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>5442</v>
+        <v>2625</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -1646,10 +1670,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>1905</v>
+        <v>8996</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -1661,10 +1685,10 @@
         <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N18" s="7">
-        <v>7348</v>
+        <v>11621</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>42</v>
@@ -1682,49 +1706,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>1890</v>
+        <v>3074</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4335</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2530</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>10</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7409</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4420</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,37 +1760,37 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1790</v>
+        <v>1656</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>818</v>
+        <v>1764</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>57</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>2608</v>
+        <v>3419</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>58</v>
@@ -1775,7 +1799,7 @@
         <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,102 +1808,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>177</v>
+      </c>
+      <c r="D21" s="7">
+        <v>131287</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>195</v>
       </c>
-      <c r="D21" s="7">
-        <v>163639</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="7">
-        <v>177</v>
-      </c>
       <c r="I21" s="7">
-        <v>133806</v>
+        <v>171327</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>297444</v>
+        <v>302614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D22" s="7">
-        <v>181226</v>
+        <v>157215</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>177</v>
+      </c>
+      <c r="I22" s="7">
+        <v>165278</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="7">
-        <v>196</v>
-      </c>
-      <c r="I22" s="7">
-        <v>146010</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>358</v>
+      </c>
+      <c r="N22" s="7">
+        <v>322493</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="7">
-        <v>407</v>
-      </c>
-      <c r="N22" s="7">
-        <v>327235</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1888,49 +1912,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>107</v>
+      </c>
+      <c r="D23" s="7">
+        <v>73017</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="7">
-        <v>62786</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>99</v>
+      </c>
+      <c r="I23" s="7">
+        <v>82212</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="7">
-        <v>89</v>
-      </c>
-      <c r="I23" s="7">
-        <v>71325</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>206</v>
+      </c>
+      <c r="N23" s="7">
+        <v>155229</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M23" s="7">
-        <v>161</v>
-      </c>
-      <c r="N23" s="7">
-        <v>134110</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1939,43 +1963,43 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>9054</v>
+        <v>5588</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7">
+        <v>18852</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="7">
-        <v>9</v>
-      </c>
-      <c r="I24" s="7">
-        <v>6970</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>23</v>
+      </c>
+      <c r="N24" s="7">
+        <v>24440</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="M24" s="7">
-        <v>18</v>
-      </c>
-      <c r="N24" s="7">
-        <v>16024</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>87</v>
@@ -1990,49 +2014,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>849</v>
+        <v>2964</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>3160</v>
+        <v>2056</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>4009</v>
+        <v>5021</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,19 +2065,19 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2062,28 +2086,28 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,49 +2116,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D27" s="7">
-        <v>253914</v>
+        <v>239310</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I27" s="7">
-        <v>227465</v>
+        <v>268398</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="N27" s="7">
-        <v>481378</v>
+        <v>507708</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,49 +2169,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="D28" s="7">
-        <v>295940</v>
+        <v>233730</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="I28" s="7">
-        <v>238203</v>
+        <v>279236</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M28" s="7">
-        <v>661</v>
+        <v>583</v>
       </c>
       <c r="N28" s="7">
-        <v>534142</v>
+        <v>512966</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,49 +2220,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>174</v>
+      </c>
+      <c r="D29" s="7">
+        <v>120435</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="7">
+        <v>150</v>
+      </c>
+      <c r="I29" s="7">
+        <v>124485</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="7">
+        <v>324</v>
+      </c>
+      <c r="N29" s="7">
+        <v>244920</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="D29" s="7">
-        <v>102588</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="7">
-        <v>139</v>
-      </c>
-      <c r="I29" s="7">
-        <v>107684</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M29" s="7">
-        <v>260</v>
-      </c>
-      <c r="N29" s="7">
-        <v>210272</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,49 +2271,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>14496</v>
+        <v>8213</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I30" s="7">
-        <v>8875</v>
+        <v>27848</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M30" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N30" s="7">
-        <v>23371</v>
+        <v>36061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,49 +2322,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D31" s="7">
-        <v>2739</v>
+        <v>6039</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H31" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I31" s="7">
-        <v>5690</v>
+        <v>6391</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M31" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N31" s="7">
-        <v>8429</v>
+        <v>12430</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,49 +2373,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2181</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
-        <v>1790</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
       <c r="I32" s="7">
-        <v>818</v>
+        <v>1764</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="M32" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" s="7">
-        <v>2608</v>
+        <v>3945</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,54 +2424,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D33" s="7">
-        <v>417552</v>
+        <v>370598</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="I33" s="7">
-        <v>361271</v>
+        <v>439724</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="N33" s="7">
-        <v>778823</v>
+        <v>810322</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
